--- a/src/test/webapp/tests/components/redirects-onlynew.xlsx
+++ b/src/test/webapp/tests/components/redirects-onlynew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeeff/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeeff/Documents.nosync/workspace-visualstudio/webjet8v9/src/test/webapp/tests/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7068D4-A7B7-0F4D-AF6D-5053DBD02833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F2EBDA-9446-C841-8EFC-78C3D1F9CFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="5860" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>ID|urlRedirectId</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>/oldurl-onlynew-164-xls</t>
+  </si>
+  <si>
+    <t>/oldurl-onlynew-2</t>
+  </si>
+  <si>
+    <t>/oldurl-onlynew-02-xls</t>
   </si>
 </sst>
 </file>
@@ -124,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -270,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,6 +488,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>301</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
